--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,145 +52,91 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -208,31 +154,100 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>social</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>true</t>
@@ -241,130 +256,19 @@
     <t>worth</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
@@ -746,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS60"/>
+  <dimension ref="A1:BS46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,28 +658,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="AB1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AK1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AT1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="BL1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -977,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03894434291635303</v>
+        <v>0.0381176957246999</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -995,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.01513129285991625</v>
+        <v>0.01523146287030386</v>
       </c>
       <c r="L3">
         <v>34</v>
@@ -1025,13 +929,13 @@
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04620970367984241</v>
+        <v>0.04520067675901863</v>
       </c>
       <c r="U3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1043,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>0.1018372055017349</v>
+        <v>0.1225699620309321</v>
       </c>
       <c r="AD3">
         <v>34</v>
@@ -1073,13 +977,13 @@
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05682830787263459</v>
+        <v>0.3111764907521817</v>
       </c>
       <c r="AM3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AN3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1091,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AU3">
-        <v>0.07777156779841046</v>
+        <v>0.09806364007872545</v>
       </c>
       <c r="AV3">
         <v>34</v>
@@ -1121,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.07381807458110208</v>
+        <v>0.2738540484480409</v>
       </c>
       <c r="BE3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BF3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1139,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="BM3">
-        <v>0.06453188779148687</v>
+        <v>0.08354629595803023</v>
       </c>
       <c r="BN3">
         <v>34</v>
@@ -1171,13 +1075,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01198089344614766</v>
+        <v>0.01169301184054788</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1189,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.0120679444016238</v>
+        <v>0.01302396652980933</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1213,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01420895920063695</v>
+        <v>0.0138579857403381</v>
       </c>
       <c r="U4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1237,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AC4">
-        <v>0.08149682460654385</v>
+        <v>0.1049168448567256</v>
       </c>
       <c r="AD4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1261,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.01746536299565974</v>
+        <v>0.09865030334098686</v>
       </c>
       <c r="AM4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1285,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AU4">
-        <v>0.06284148209266645</v>
+        <v>0.08440090941796848</v>
       </c>
       <c r="AV4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1309,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02267560906769622</v>
+        <v>0.08975797282500597</v>
       </c>
       <c r="BE4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BF4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1333,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="BM4">
-        <v>0.05257826911039944</v>
+        <v>0.07224743753821196</v>
       </c>
       <c r="BN4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BO4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1357,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1365,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.009378971345454668</v>
+        <v>0.00862351282170213</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1383,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.01078598901523232</v>
+        <v>0.01085758861036742</v>
       </c>
       <c r="L5">
         <v>24</v>
@@ -1413,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.01099989022275189</v>
+        <v>0.01008478182733378</v>
       </c>
       <c r="U5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1431,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AC5">
-        <v>0.07357243029852552</v>
+        <v>0.08852610032442929</v>
       </c>
       <c r="AD5">
         <v>24</v>
@@ -1461,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01336892550495551</v>
+        <v>0.07216518595124941</v>
       </c>
       <c r="AM5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1479,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AU5">
-        <v>0.05742779100542988</v>
+        <v>0.07238184911507176</v>
       </c>
       <c r="AV5">
         <v>24</v>
@@ -1509,13 +1413,13 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.01715938195648132</v>
+        <v>0.06603434934749049</v>
       </c>
       <c r="BE5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1527,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="BM5">
-        <v>0.04854583821021002</v>
+        <v>0.06281812711573316</v>
       </c>
       <c r="BN5">
         <v>24</v>
@@ -1559,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005557222320716542</v>
+        <v>0.00562597103969849</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1580,16 +1484,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.009493730882643844</v>
+        <v>0.01043253671068957</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1601,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.006571673855855786</v>
+        <v>0.006653374789329456</v>
       </c>
       <c r="U6">
         <v>12</v>
@@ -1628,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AC6">
-        <v>0.06538373206053362</v>
+        <v>0.08550042594635206</v>
       </c>
       <c r="AD6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1649,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008054333791828528</v>
+        <v>0.0497406669391507</v>
       </c>
       <c r="AM6">
         <v>12</v>
@@ -1676,16 +1580,16 @@
         <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AU6">
-        <v>0.05168579422740397</v>
+        <v>0.07030677112606447</v>
       </c>
       <c r="AV6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1697,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01042658968938492</v>
+        <v>0.04734147198956866</v>
       </c>
       <c r="BE6">
         <v>12</v>
@@ -1724,16 +1628,16 @@
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="BM6">
-        <v>0.04414989113183316</v>
+        <v>0.06130617463070529</v>
       </c>
       <c r="BN6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BO6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1745,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1753,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002993935518262291</v>
+        <v>0.00388996090956859</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1771,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.006052002006656649</v>
+        <v>0.006250871513266728</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1795,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003546122544604768</v>
+        <v>0.0045827074863627</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1819,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AC7">
-        <v>0.04365733006337755</v>
+        <v>0.05248224201140131</v>
       </c>
       <c r="AD7">
         <v>13</v>
@@ -1849,13 +1753,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.00435316512156685</v>
+        <v>0.0356214637394247</v>
       </c>
       <c r="AM7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1867,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AU7">
-        <v>0.03651059685716378</v>
+        <v>0.04596046232817225</v>
       </c>
       <c r="AV7">
         <v>13</v>
@@ -1897,13 +1801,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.005644433244706183</v>
+        <v>0.03504280224660108</v>
       </c>
       <c r="BE7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1915,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="BM7">
-        <v>0.03257883066373961</v>
+        <v>0.04209701353624654</v>
       </c>
       <c r="BN7">
         <v>13</v>
@@ -1947,13 +1851,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002991359831713042</v>
+        <v>0.003451461049733484</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1965,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.004463294415859497</v>
+        <v>0.006092071167858386</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1989,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003533888033495832</v>
+        <v>0.004043678355933511</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2013,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AC8">
-        <v>0.03243071116108585</v>
+        <v>0.0373099507254401</v>
       </c>
       <c r="AD8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2037,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004326813866870681</v>
+        <v>0.03183787554089078</v>
       </c>
       <c r="AM8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2061,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="AU8">
-        <v>0.02847157784720835</v>
+        <v>0.03104448885733811</v>
       </c>
       <c r="AV8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2085,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005595495200270439</v>
+        <v>0.0316537131783846</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2109,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="BM8">
-        <v>0.02629346568468511</v>
+        <v>0.03022097663007014</v>
       </c>
       <c r="BN8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BO8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2133,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2141,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002981057085516043</v>
+        <v>0.003030950499108903</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2159,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.00431697129264218</v>
+        <v>0.003480082138212311</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2183,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003484949989060088</v>
+        <v>0.003590098444254322</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2207,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AC9">
-        <v>0.02701562965742018</v>
+        <v>0.03243463678007269</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2237,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004221408848086001</v>
+        <v>0.02906943693676655</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2255,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AU9">
-        <v>0.02469829761032263</v>
+        <v>0.03063357126787304</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2279,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005399743022527461</v>
+        <v>0.0295223106400665</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2303,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="BM9">
-        <v>0.02342342032879844</v>
+        <v>0.02975358963073527</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2327,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2335,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002978481398966793</v>
+        <v>0.003028380597793114</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2353,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.003457182995282692</v>
+        <v>0.003469802532949153</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2377,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003472715477951152</v>
+        <v>0.003577891413004322</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2401,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AC10">
-        <v>0.02424201292309396</v>
+        <v>0.03211904361959513</v>
       </c>
       <c r="AD10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2425,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004195057593389831</v>
+        <v>0.02892441556613659</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2449,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AU10">
-        <v>0.02272958106918244</v>
+        <v>0.02855849327886575</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2479,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005350804978091717</v>
+        <v>0.02934264113579531</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2497,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="BM10">
-        <v>0.02189751860630824</v>
+        <v>0.0282416371457074</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2529,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0025658624890035</v>
+        <v>0.002597590441905376</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2550,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.0030247131600537</v>
+        <v>0.003044750633271299</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2577,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003037785822359953</v>
+        <v>0.003075483376325134</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2598,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AC11">
-        <v>0.02424201292309396</v>
+        <v>0.02909336924151792</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2625,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003727519924957848</v>
+        <v>0.02557589147949253</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2646,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AU11">
-        <v>0.02272958106918244</v>
+        <v>0.02855849327886575</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2673,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004831094489114479</v>
+        <v>0.02649256058039241</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2694,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="BM11">
-        <v>0.02189751860630824</v>
+        <v>0.0282416371457074</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2723,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002547832683158752</v>
+        <v>0.002164230384701848</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2741,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.0030247131600537</v>
+        <v>0.003044750633271299</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2771,13 +2675,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002952144244597401</v>
+        <v>0.002560868308395945</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2789,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AC12">
-        <v>0.01954274551408145</v>
+        <v>0.02909336924151792</v>
       </c>
       <c r="AD12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2813,19 +2717,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003543061142084658</v>
+        <v>0.02208234602221852</v>
       </c>
       <c r="AM12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2837,19 +2741,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AU12">
-        <v>0.01674135502306453</v>
+        <v>0.02247641041466091</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2861,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004488528178064269</v>
+        <v>0.02346281052071832</v>
       </c>
       <c r="BE12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -2885,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="BM12">
-        <v>0.01722893439429079</v>
+        <v>0.02206992519295177</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -2909,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2917,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002137789459744708</v>
+        <v>0.002143671174175532</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2935,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.001724727967817472</v>
+        <v>0.001733616315816682</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -2959,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002529449100115138</v>
+        <v>0.002463212058395945</v>
       </c>
       <c r="U13">
         <v>4</v>
@@ -2983,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC13">
-        <v>0.01585508673762188</v>
+        <v>0.01891177004561483</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -3007,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003101874728348844</v>
+        <v>0.02092217505717887</v>
       </c>
       <c r="AM13">
         <v>4</v>
@@ -3031,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AU13">
-        <v>0.01674135502306453</v>
+        <v>0.02089504774871615</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3055,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004017755733522775</v>
+        <v>0.02202545448654871</v>
       </c>
       <c r="BE13">
         <v>4</v>
@@ -3079,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="BM13">
-        <v>0.01722893439429079</v>
+        <v>0.02195307844311805</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3103,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3111,13 +3015,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002137789459744708</v>
+        <v>0.001730870327498321</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3132,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.001724727967817472</v>
+        <v>0.001731046414500893</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3153,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002529449100115138</v>
+        <v>0.002046253240466756</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3180,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="AC14">
-        <v>0.01585508673762188</v>
+        <v>0.01883287175549544</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3201,19 +3105,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003101874728348844</v>
+        <v>0.01858880056494451</v>
       </c>
       <c r="AM14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3228,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AU14">
-        <v>0.0166592786003672</v>
+        <v>0.02079231835134988</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3249,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004017755733522775</v>
+        <v>0.02043306046104423</v>
       </c>
       <c r="BE14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3276,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="BM14">
-        <v>0.01713805534974393</v>
+        <v>0.02032427920825647</v>
       </c>
       <c r="BN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3297,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3305,7 +3209,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001709716430485916</v>
+        <v>0.001728300426182531</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3323,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.001722152281268222</v>
+        <v>0.001303424613507248</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3347,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002021112377870324</v>
+        <v>0.002034046209216756</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3371,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AC15">
-        <v>0.01578901075512848</v>
+        <v>0.01572829908729884</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3395,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002476229531739842</v>
+        <v>0.01844377919431455</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3419,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AU15">
-        <v>0.01567436152799919</v>
+        <v>0.01861451096497633</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3443,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003204416977931071</v>
+        <v>0.02025339095677302</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3467,19 +3371,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="BM15">
-        <v>0.01604750681518159</v>
+        <v>0.02032427920825647</v>
       </c>
       <c r="BN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>1</v>
@@ -3491,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3499,13 +3403,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001707140743936667</v>
+        <v>0.001294940368979004</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3520,16 +3424,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.001691244042677226</v>
+        <v>0.001303424613507248</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3541,19 +3445,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002008877866761388</v>
+        <v>0.001519431141287567</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3568,16 +3472,16 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AC16">
-        <v>0.01499609896520776</v>
+        <v>0.01572829908729884</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3589,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002449878277043672</v>
+        <v>0.01495023373704054</v>
       </c>
       <c r="AM16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3616,16 +3520,16 @@
         <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AU16">
-        <v>0.01542813225990718</v>
+        <v>0.01861451096497633</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3637,19 +3541,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.003155478933495327</v>
+        <v>0.01722364089709893</v>
       </c>
       <c r="BE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3664,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="BM16">
-        <v>0.01579391171634746</v>
+        <v>0.02009058570858903</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3685,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3693,13 +3597,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00167880819189492</v>
+        <v>0.001294940368979004</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3711,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.001683516983029476</v>
+        <v>0.001298284810875669</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3735,19 +3639,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.001874298244563091</v>
+        <v>0.001519431141287567</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3759,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AC17">
-        <v>0.01479787101772758</v>
+        <v>0.01557050250706006</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -3783,19 +3687,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002160014475385802</v>
+        <v>0.01495023373704054</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3807,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU17">
-        <v>0.01485471490462168</v>
+        <v>0.01840905217024379</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3831,19 +3735,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.002617160444702139</v>
+        <v>0.01722364089709893</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3855,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="BM17">
-        <v>0.01579391171634746</v>
+        <v>0.02009058570858903</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3879,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3887,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001281643401227125</v>
+        <v>0.001294940368979004</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3905,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.001294833819137729</v>
+        <v>0.001298284810875669</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3929,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001512775655625509</v>
+        <v>0.001519431141287567</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -3953,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AC18">
-        <v>0.01314754598578904</v>
+        <v>0.01557050250706006</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3977,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.001850584335130839</v>
+        <v>0.01495023373704054</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4001,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AU18">
-        <v>0.01485471490462168</v>
+        <v>0.01840905217024379</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4025,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002391078222339367</v>
+        <v>0.01722364089709893</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4049,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="BM18">
-        <v>0.01579391171634746</v>
+        <v>0.01834493972389373</v>
       </c>
       <c r="BN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP18">
         <v>1</v>
@@ -4081,7 +3985,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001281643401227125</v>
+        <v>0.001292370467663214</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4099,19 +4003,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.001294833819137729</v>
+        <v>0.0008680931085662358</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4129,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001512775655625509</v>
+        <v>0.001507224110037567</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4147,19 +4051,19 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC19">
-        <v>0.01314754598578904</v>
+        <v>0.01238703154874407</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -4177,7 +4081,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001850584335130839</v>
+        <v>0.01480521236641059</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4195,19 +4099,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AU19">
-        <v>0.01485471490462168</v>
+        <v>0.01612851538650397</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -4225,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002391078222339367</v>
+        <v>0.01704397139282773</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4243,19 +4147,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="BM19">
-        <v>0.01579391171634746</v>
+        <v>0.01834493972389373</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4275,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001281643401227125</v>
+        <v>0.001289800566347425</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4293,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.001294833819137729</v>
+        <v>0.0008680931085662358</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4323,7 +4227,7 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001512775655625509</v>
+        <v>0.001495017078787567</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4341,19 +4245,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AC20">
-        <v>0.01314754598578904</v>
+        <v>0.01238703154874407</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -4371,7 +4275,7 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001850584335130839</v>
+        <v>0.01466019099578063</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4389,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AU20">
-        <v>0.01485471490462168</v>
+        <v>0.01612851538650397</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -4419,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002391078222339367</v>
+        <v>0.01686430188855653</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4437,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="BM20">
-        <v>0.01579391171634746</v>
+        <v>0.01834493972389373</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4469,7 +4373,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001281643401227125</v>
+        <v>0.001289800566347425</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4487,19 +4391,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.001294833819137729</v>
+        <v>0.0008680931085662358</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4517,7 +4421,7 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001512775655625509</v>
+        <v>0.001495017078787567</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4535,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC21">
-        <v>0.01314754598578904</v>
+        <v>0.01238703154874407</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -4565,7 +4469,7 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001850584335130839</v>
+        <v>0.01466019099578063</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4583,19 +4487,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AU21">
-        <v>0.01485471490462168</v>
+        <v>0.01612851538650397</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4613,7 +4517,7 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002391078222339367</v>
+        <v>0.01686430188855653</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4631,19 +4535,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="BM21">
-        <v>0.01577486968154101</v>
+        <v>0.0181112462242263</v>
       </c>
       <c r="BN21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4655,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4663,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001281643401227125</v>
+        <v>0.001287230665031635</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4681,19 +4585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.001294833819137729</v>
+        <v>0.0008629533059346567</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4705,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001512775655625509</v>
+        <v>0.001482810047537567</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4729,19 +4633,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AC22">
-        <v>0.01314754598578904</v>
+        <v>0.01222923496850529</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4753,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001850584335130839</v>
+        <v>0.01451516962515068</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4777,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="AU22">
-        <v>0.01452640921383234</v>
+        <v>0.01592305659177144</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4801,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002391078222339367</v>
+        <v>0.01668463238428533</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4825,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="BM22">
-        <v>0.01543039553816001</v>
+        <v>0.0181112462242263</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4849,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4857,13 +4761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001281643401227125</v>
+        <v>0.0008641502130912657</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4878,16 +4782,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.00128453107294073</v>
+        <v>0.0008629533059346567</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4899,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001512775655625509</v>
+        <v>0.001017023104608378</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4926,16 +4830,16 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AC23">
-        <v>0.01288324205581547</v>
+        <v>0.01222923496850529</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4947,19 +4851,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001850584335130839</v>
+        <v>0.01160170965039649</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4974,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AU23">
-        <v>0.01288599836348149</v>
+        <v>0.01592305659177144</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4995,19 +4899,19 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002391078222339367</v>
+        <v>0.01437356034169604</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -5022,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="BM23">
-        <v>0.01426800999385726</v>
+        <v>0.0181112462242263</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5043,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5051,13 +4955,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001279067714677875</v>
+        <v>0.0008641502130912657</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5069,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.0008623639839087358</v>
+        <v>0.0008629533059346567</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5093,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001500541144516573</v>
+        <v>0.001017023104608378</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -5117,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AC24">
-        <v>0.01037392925146282</v>
+        <v>0.01222923496850529</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5141,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001824233080434669</v>
+        <v>0.01160170965039649</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -5165,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AU24">
-        <v>0.01288599836348149</v>
+        <v>0.01592305659177144</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5189,19 +5093,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002342140177903623</v>
+        <v>0.01437356034169604</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5213,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="BM24">
-        <v>0.01426800999385726</v>
+        <v>0.01799439947439258</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5237,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5245,13 +5149,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001279067714677875</v>
+        <v>0.0008641502130912657</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5263,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.0008623639839087358</v>
+        <v>0.0008603834046188673</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5287,19 +5191,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001500541144516573</v>
+        <v>0.001017023104608378</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5311,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AC25">
-        <v>0.01037392925146282</v>
+        <v>0.0121503366783859</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5335,19 +5239,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001824233080434669</v>
+        <v>0.01160170965039649</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5359,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="AU25">
-        <v>0.01288599836348149</v>
+        <v>0.01582032719440517</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5383,19 +5287,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002342140177903623</v>
+        <v>0.01437356034169604</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5407,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="BM25">
-        <v>0.01426800999385726</v>
+        <v>0.01787755272455886</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5431,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5439,13 +5343,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001279067714677875</v>
+        <v>0.0008615803117754762</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5460,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.0008623639839087358</v>
+        <v>0.0008578135033030778</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5481,19 +5385,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001500541144516573</v>
+        <v>0.001004816073358378</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5508,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="AC26">
-        <v>0.01037392925146282</v>
+        <v>0.01207143838826651</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5529,19 +5433,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001824233080434669</v>
+        <v>0.01145668827976653</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5556,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="AU26">
-        <v>0.01288599836348149</v>
+        <v>0.0157175977970389</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5577,19 +5481,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002342140177903623</v>
+        <v>0.01419389083742484</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5604,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="BM26">
-        <v>0.01426800999385726</v>
+        <v>0.01787755272455886</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5625,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5633,13 +5537,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001276492028128625</v>
+        <v>0.0008615803117754762</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5651,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.0008623639839087358</v>
+        <v>0.0008578135033030778</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5675,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001488306633407636</v>
+        <v>0.001004816073358378</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5699,13 +5603,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AC27">
-        <v>0.01037392925146282</v>
+        <v>0.01207143838826651</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5723,19 +5627,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001797881825738499</v>
+        <v>0.01145668827976653</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5747,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AU27">
-        <v>0.01288599836348149</v>
+        <v>0.0157175977970389</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5771,19 +5675,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.002293202133467879</v>
+        <v>0.01419389083742484</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5795,13 +5699,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="BM27">
-        <v>0.01426800999385726</v>
+        <v>0.01787755272455886</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5819,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5827,7 +5731,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0008535703719683334</v>
+        <v>0.0008615803117754762</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5845,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.0008623639839087358</v>
+        <v>0.0008578135033030778</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5869,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001004438933380694</v>
+        <v>0.001004816073358378</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5893,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AC28">
-        <v>0.01037392925146282</v>
+        <v>0.01207143838826651</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5917,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001224939138521836</v>
+        <v>0.01145668827976653</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5941,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AU28">
-        <v>0.01288599836348149</v>
+        <v>0.0157175977970389</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5965,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.001577739466747664</v>
+        <v>0.01419389083742484</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5989,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="BM28">
-        <v>0.01426800999385726</v>
+        <v>0.01776070597472515</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6013,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6021,7 +5925,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008535703719683334</v>
+        <v>0.0008615803117754762</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6039,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.0008623639839087358</v>
+        <v>0.0008552436019872884</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6063,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001004438933380694</v>
+        <v>0.001004816073358378</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6087,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AC29">
-        <v>0.01037392925146282</v>
+        <v>0.01199254009814713</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6111,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001224939138521836</v>
+        <v>0.01145668827976653</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6135,13 +6039,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AU29">
-        <v>0.01288599836348149</v>
+        <v>0.01561486839967263</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6159,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001577739466747664</v>
+        <v>0.01419389083742484</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6183,13 +6087,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="BM29">
-        <v>0.01426800999385726</v>
+        <v>0.01764385922489143</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6207,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6215,7 +6119,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0008535703719683334</v>
+        <v>0.0008564405091438973</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6233,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.0008623639839087358</v>
+        <v>0.0008526737006714988</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6257,13 +6161,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001004438933380694</v>
+        <v>0.0009804020108583778</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6281,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AC30">
-        <v>0.01037392925146282</v>
+        <v>0.01191364180802774</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6305,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001224939138521836</v>
+        <v>0.01116664553850662</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6329,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AU30">
-        <v>0.01288599836348149</v>
+        <v>0.01551213900230637</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6353,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001577739466747664</v>
+        <v>0.01383455182888244</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6377,13 +6281,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="BM30">
-        <v>0.01426800999385726</v>
+        <v>0.01752701247505771</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6401,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6409,7 +6313,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008535703719683334</v>
+        <v>0.0008564405091438973</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6427,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.0008623639839087358</v>
+        <v>0.0008501037993557094</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6451,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001004438933380694</v>
+        <v>0.0009804020108583778</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6475,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AC31">
-        <v>0.01037392925146282</v>
+        <v>0.01183474351790835</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6499,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001224939138521836</v>
+        <v>0.01116664553850662</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6523,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AU31">
-        <v>0.01288599836348149</v>
+        <v>0.0154094096049401</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6547,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001577739466747664</v>
+        <v>0.01383455182888244</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6571,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="BM31">
-        <v>0.01426800999385726</v>
+        <v>0.01729331897539027</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6595,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6603,7 +6507,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008535703719683334</v>
+        <v>0.0008461609038807393</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6621,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.0008623639839087358</v>
+        <v>0.0008449639967241304</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6645,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001004438933380694</v>
+        <v>0.000931573885858378</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6669,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AC32">
-        <v>0.01037392925146282</v>
+        <v>0.01167694693766957</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6693,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001224939138521836</v>
+        <v>0.0105865600559868</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6717,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AU32">
-        <v>0.01288599836348149</v>
+        <v>0.01520395081020757</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6741,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001577739466747664</v>
+        <v>0.01311587381179764</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6765,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="BM32">
-        <v>0.01426800999385726</v>
+        <v>0.01717647222555655</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6789,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6797,7 +6701,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008535703719683334</v>
+        <v>0.0008461609038807393</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6815,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.0008623639839087358</v>
+        <v>0.0008423940954083409</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6839,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001004438933380694</v>
+        <v>0.000931573885858378</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6863,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AC33">
-        <v>0.01037392925146282</v>
+        <v>0.01159804864755018</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6887,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001224939138521836</v>
+        <v>0.0105865600559868</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6911,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AU33">
-        <v>0.01288599836348149</v>
+        <v>0.0151012214128413</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6935,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001577739466747664</v>
+        <v>0.01311587381179764</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6959,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="BM33">
-        <v>0.01426800999385726</v>
+        <v>0.01717647222555655</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6983,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6991,7 +6895,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008535703719683334</v>
+        <v>0.000828171594670213</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7009,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.0008623639839087358</v>
+        <v>0.0008423940954083409</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7033,13 +6937,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001004438933380694</v>
+        <v>0.0008461246671083781</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7057,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AC34">
-        <v>0.01037392925146282</v>
+        <v>0.01159804864755018</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7081,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001224939138521836</v>
+        <v>0.009571410461577102</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7105,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AU34">
-        <v>0.01288599836348149</v>
+        <v>0.0151012214128413</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7129,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001577739466747664</v>
+        <v>0.01185818728189923</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7153,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="BM34">
-        <v>0.01426800999385726</v>
+        <v>0.01694277872588912</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7177,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7185,7 +7089,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008535703719683334</v>
+        <v>0.0006585581078281076</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7203,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.0008623639839087358</v>
+        <v>0.0008372542927767621</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7227,13 +7131,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001004438933380694</v>
+        <v>4.046060460837815E-05</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7251,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AC35">
-        <v>0.01037392925146282</v>
+        <v>0.0114402520673114</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7275,13 +7179,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001224939138521836</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7299,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AU35">
-        <v>0.01280392194078415</v>
+        <v>0.01489576261810876</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7323,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001577739466747664</v>
+        <v>0</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7347,13 +7251,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="BM35">
-        <v>0.0141771309493104</v>
+        <v>0.01670908522622168</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7371,39 +7275,15 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.0008535703719683334</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="K36">
-        <v>0.0008597882973594862</v>
+        <v>0.000832114490145183</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7421,37 +7301,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.001004438933380694</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC36">
-        <v>0.01030785326896942</v>
+        <v>0.01128245548707263</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7469,37 +7325,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.001224939138521836</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AU36">
-        <v>0.01280392194078415</v>
+        <v>0.01469030382337623</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7517,37 +7349,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.001577739466747664</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BM36">
-        <v>0.0141771309493104</v>
+        <v>0.01659223847638796</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7565,39 +7373,15 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0008535703719683334</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.0008597882973594862</v>
+        <v>0.0008295445888293935</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7615,37 +7399,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.001004438933380694</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AC37">
-        <v>0.01030785326896942</v>
+        <v>0.01120355719695323</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7663,37 +7423,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.001224939138521836</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AU37">
-        <v>0.01280392194078415</v>
+        <v>0.01458757442600996</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7711,37 +7447,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.001577739466747664</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="BM37">
-        <v>0.0141771309493104</v>
+        <v>0.01659223847638796</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7759,39 +7471,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008535703719683334</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.0008597882973594862</v>
+        <v>0.0008295445888293935</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7809,37 +7497,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001004438933380694</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC38">
-        <v>0.01030785326896942</v>
+        <v>0.01120355719695323</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7857,37 +7521,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.001224939138521836</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AU38">
-        <v>0.01280392194078415</v>
+        <v>0.01458757442600996</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7905,37 +7545,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.001577739466747664</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="BM38">
-        <v>0.0141771309493104</v>
+        <v>0.01647539172655425</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7953,39 +7569,15 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008535703719683334</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.0008597882973594862</v>
+        <v>0.0008269746875136042</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8003,37 +7595,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001004438933380694</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AC39">
-        <v>0.01030785326896942</v>
+        <v>0.01112465890683385</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8051,37 +7619,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001224939138521836</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AU39">
-        <v>0.01280392194078415</v>
+        <v>0.01448484502864369</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8099,37 +7643,13 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001577739466747664</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="BM39">
-        <v>0.0141771309493104</v>
+        <v>0.01612485147705309</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8147,39 +7667,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.0008597882973594862</v>
+        <v>0.0008192649835662357</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8197,37 +7693,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AC40">
-        <v>0.01030785326896942</v>
+        <v>0.01088796403647568</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8245,37 +7717,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AU40">
-        <v>0.01280392194078415</v>
+        <v>0.01417665683654489</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8293,37 +7741,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="BM40">
-        <v>0.0141771309493104</v>
+        <v>0.01577431122755193</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8341,39 +7765,15 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.0008597882973594862</v>
+        <v>0.0008115552796188673</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8391,37 +7791,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AC41">
-        <v>0.01030785326896942</v>
+        <v>0.01065126916611751</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8439,37 +7815,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AU41">
-        <v>0.01272184551808681</v>
+        <v>0.01386846864444609</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8487,37 +7839,13 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="BM41">
-        <v>0.01408625190476354</v>
+        <v>0.01530692422821707</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8535,39 +7863,15 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.0008572126108102365</v>
+        <v>0.0008012756743557092</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8585,37 +7889,13 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC42">
-        <v>0.01024177728647603</v>
+        <v>0.01033567600563996</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8633,37 +7913,13 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AU42">
-        <v>0.01272184551808681</v>
+        <v>0.01345755105498102</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8681,43 +7937,19 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>2</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="BM42">
-        <v>0.01408625190476354</v>
+        <v>0.01368914280103211</v>
       </c>
       <c r="BN42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BO42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BP42">
         <v>1</v>
@@ -8729,39 +7961,15 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>2</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K43">
-        <v>0.0008572126108102365</v>
+        <v>0.0006136728783030776</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8779,37 +7987,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC43">
-        <v>0.01024177728647603</v>
+        <v>0.004576100826924561</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8827,37 +8011,13 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AU43">
-        <v>0.01263976909538948</v>
+        <v>0.005958305047243506</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8875,37 +8035,13 @@
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="BM43">
-        <v>0.01399537286021668</v>
+        <v>0.006777111490355647</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -8923,39 +8059,15 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>0.0008546369242609867</v>
+        <v>0.0004671885033030774</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8973,37 +8085,13 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AC44">
-        <v>0.01017570130398263</v>
+        <v>7.889829011938943E-05</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -9021,37 +8109,13 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="AU44">
-        <v>0.01255769267269215</v>
+        <v>0.0001027293973662704</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9069,37 +8133,13 @@
         <v>0</v>
       </c>
       <c r="BA44">
-        <v>4</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="BM44">
-        <v>0.01390449381566982</v>
+        <v>0.0001168467498337197</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9117,39 +8157,15 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008509946854190838</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K45">
-        <v>0.0008520612377117371</v>
+        <v>0.000464618601987288</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9167,37 +8183,13 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>4</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009922044222717577</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="AC45">
-        <v>0.01010962532148924</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9215,37 +8207,13 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.001198587883825666</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AU45">
-        <v>0.01255769267269215</v>
+        <v>0</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9263,37 +8231,13 @@
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001528801422311919</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="BM45">
-        <v>0.01390449381566982</v>
+        <v>0</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9311,39 +8255,15 @@
         <v>0</v>
       </c>
       <c r="BS45">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.000848418998869834</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K46">
-        <v>0.0008520612377117371</v>
+        <v>0.000464618601987288</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9361,37 +8281,13 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009799699111628216</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AC46">
-        <v>0.01010962532148924</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9409,37 +8305,13 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.001172236629129496</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="AU46">
-        <v>0.01255769267269215</v>
+        <v>0</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9457,37 +8329,13 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>4</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001479863377876175</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="BL46" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="BM46">
-        <v>0.01390449381566982</v>
+        <v>0</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9505,2050 +8353,6 @@
         <v>0</v>
       </c>
       <c r="BS46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.000848418998869834</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47">
-        <v>0.0008520612377117371</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009799699111628216</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>2</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC47">
-        <v>0.01010962532148924</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>4</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.001172236629129496</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>2</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU47">
-        <v>0.01247561624999481</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>5</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.001479863377876175</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>2</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM47">
-        <v>0.01381361477112295</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008458433123205843</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48">
-        <v>0.0008494855511624874</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009677354000538855</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>3</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC48">
-        <v>0.01004354933899585</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>5</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.001145885374433326</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>3</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU48">
-        <v>0.01247561624999481</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>5</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.00143092533344043</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>3</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM48">
-        <v>0.01381361477112295</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008458433123205843</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
-        <v>0.0008494855511624874</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>5</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009677354000538855</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC49">
-        <v>0.01004354933899585</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>5</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.001145885374433326</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>3</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU49">
-        <v>0.01239353982729748</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>6</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.00143092533344043</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>3</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM49">
-        <v>0.01372273572657609</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008432676257713347</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50">
-        <v>0.0008469098646132376</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>6</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.0009555008889449494</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>4</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC50">
-        <v>0.009977473356502453</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>6</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.001119534119737156</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>4</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU50">
-        <v>0.01231146340460014</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>7</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.001381987289004686</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>4</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM50">
-        <v>0.01363185668202923</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008432676257713347</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51">
-        <v>0.000844334178063988</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>7</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009555008889449494</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>4</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC51">
-        <v>0.00991139737400906</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>7</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.001119534119737156</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>4</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU51">
-        <v>0.01190108129111347</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>12</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.001381987289004686</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>4</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM51">
-        <v>0.01317746145929492</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008406919392220849</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52">
-        <v>0.0008314557453177394</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>12</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.0009432663778360133</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC52">
-        <v>0.00958101746154209</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>12</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.001093182865040986</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>5</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU52">
-        <v>0.01165485202302147</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>15</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.001333049244568942</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>5</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM52">
-        <v>0.01290482432565434</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0008355405661235855</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53">
-        <v>0.0008237286856699903</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>15</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>0.0009187973556181412</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>7</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC53">
-        <v>0.00938278951406191</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>15</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0.001040480355648646</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>7</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU53">
-        <v>0.01165485202302147</v>
-      </c>
-      <c r="AV53">
-        <v>1</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>15</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0.001235173155697453</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>7</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM53">
-        <v>0.01290482432565434</v>
-      </c>
-      <c r="BN53">
-        <v>1</v>
-      </c>
-      <c r="BO53">
-        <v>1</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="J54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54">
-        <v>0.0008237286856699903</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>15</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC54">
-        <v>0.00938278951406191</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>15</v>
-      </c>
-      <c r="AT54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU54">
-        <v>0.01108031706414013</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>22</v>
-      </c>
-      <c r="BL54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM54">
-        <v>0.01226867101382631</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-      <c r="BO54">
-        <v>1</v>
-      </c>
-      <c r="BP54">
-        <v>1</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71">
-      <c r="J55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K55">
-        <v>0.0008056988798252424</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>22</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC55">
-        <v>0.008920257636608154</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>22</v>
-      </c>
-      <c r="AT55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU55">
-        <v>0.01108031706414013</v>
-      </c>
-      <c r="AV55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>22</v>
-      </c>
-      <c r="BL55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM55">
-        <v>0.01226867101382631</v>
-      </c>
-      <c r="BN55">
-        <v>1</v>
-      </c>
-      <c r="BO55">
-        <v>1</v>
-      </c>
-      <c r="BP55">
-        <v>1</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71">
-      <c r="J56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K56">
-        <v>0.0008056988798252424</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>22</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC56">
-        <v>0.008920257636608154</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>22</v>
-      </c>
-      <c r="AT56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU56">
-        <v>0.01075201137335079</v>
-      </c>
-      <c r="AV56">
-        <v>1</v>
-      </c>
-      <c r="AW56">
-        <v>1</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>26</v>
-      </c>
-      <c r="BL56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM56">
-        <v>0.01190515483563886</v>
-      </c>
-      <c r="BN56">
-        <v>1</v>
-      </c>
-      <c r="BO56">
-        <v>1</v>
-      </c>
-      <c r="BP56">
-        <v>1</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:71">
-      <c r="J57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K57">
-        <v>0.0007953961336282435</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>26</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC57">
-        <v>0.00865595370663458</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>26</v>
-      </c>
-      <c r="AT57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU57">
-        <v>0.009509688996932461</v>
-      </c>
-      <c r="AV57">
-        <v>11</v>
-      </c>
-      <c r="AW57">
-        <v>11</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>281</v>
-      </c>
-      <c r="BL57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM57">
-        <v>0.00645241216282717</v>
-      </c>
-      <c r="BN57">
-        <v>1</v>
-      </c>
-      <c r="BO57">
-        <v>1</v>
-      </c>
-      <c r="BP57">
-        <v>1</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS57">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:71">
-      <c r="J58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K58">
-        <v>0.0006408549406732612</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>86</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC58">
-        <v>0.004691394757030955</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>86</v>
-      </c>
-      <c r="AT58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU58">
-        <v>0.005827426011510736</v>
-      </c>
-      <c r="AV58">
-        <v>1</v>
-      </c>
-      <c r="AW58">
-        <v>1</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>86</v>
-      </c>
-      <c r="BL58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM58">
-        <v>0.005270984583717968</v>
-      </c>
-      <c r="BN58">
-        <v>1</v>
-      </c>
-      <c r="BO58">
-        <v>1</v>
-      </c>
-      <c r="BP58">
-        <v>1</v>
-      </c>
-      <c r="BQ58">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS58">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:71">
-      <c r="J59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K59">
-        <v>0.0006073710155330151</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>99</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC59">
-        <v>0.003832406984616836</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AE59">
-        <v>1</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>99</v>
-      </c>
-      <c r="AT59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU59">
-        <v>0.004760432516445388</v>
-      </c>
-      <c r="AV59">
-        <v>1</v>
-      </c>
-      <c r="AW59">
-        <v>1</v>
-      </c>
-      <c r="AX59">
-        <v>1</v>
-      </c>
-      <c r="AY59">
-        <v>0</v>
-      </c>
-      <c r="AZ59" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>99</v>
-      </c>
-      <c r="BL59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM59">
-        <v>0.003990015701091131</v>
-      </c>
-      <c r="BN59">
-        <v>11</v>
-      </c>
-      <c r="BO59">
-        <v>11</v>
-      </c>
-      <c r="BP59">
-        <v>1</v>
-      </c>
-      <c r="BQ59">
-        <v>0</v>
-      </c>
-      <c r="BR59" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS59">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:71">
-      <c r="J60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K60">
-        <v>0.0004579811956765322</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>157</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>157</v>
-      </c>
-      <c r="AT60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU60">
-        <v>0</v>
-      </c>
-      <c r="AV60">
-        <v>1</v>
-      </c>
-      <c r="AW60">
-        <v>1</v>
-      </c>
-      <c r="AX60">
-        <v>1</v>
-      </c>
-      <c r="AY60">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA60">
-        <v>157</v>
-      </c>
-      <c r="BL60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM60">
-        <v>0</v>
-      </c>
-      <c r="BN60">
-        <v>1</v>
-      </c>
-      <c r="BO60">
-        <v>1</v>
-      </c>
-      <c r="BP60">
-        <v>1</v>
-      </c>
-      <c r="BQ60">
-        <v>0</v>
-      </c>
-      <c r="BR60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS60">
         <v>157</v>
       </c>
     </row>
